--- a/CaseAndFatalityDemographicsData/2021-07-02.xlsx
+++ b/CaseAndFatalityDemographicsData/2021-07-02.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\6.24.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\7.01.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E210AF1A-D1C6-4E05-8335-D6FED0DED8D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3917A71E-C38C-4C13-888A-EBD9CAA2D4CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3756" yWindow="906" windowWidth="17280" windowHeight="8994" tabRatio="806" firstSheet="1" activeTab="4" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
+    <workbookView xWindow="13038" yWindow="2112" windowWidth="17280" windowHeight="8994" tabRatio="806" firstSheet="3" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by Age Group" sheetId="3" r:id="rId1"/>
@@ -615,7 +615,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -643,7 +643,7 @@
       </c>
       <c r="C2" s="9">
         <f>B2/$B$15</f>
-        <v>3.5517314690911819E-3</v>
+        <v>3.5419420817639868E-3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -651,11 +651,11 @@
         <v>3</v>
       </c>
       <c r="B3" s="6">
-        <v>1399</v>
+        <v>1409</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>1.7496029314290718E-2</v>
+        <v>1.7572522511286822E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -663,11 +663,11 @@
         <v>4</v>
       </c>
       <c r="B4" s="6">
-        <v>3873</v>
+        <v>3898</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>4.8436112604894888E-2</v>
+        <v>4.8614402234915567E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -675,11 +675,11 @@
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>15871</v>
+        <v>15907</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>0.19848426107727518</v>
+        <v>0.19838617145992865</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -687,11 +687,11 @@
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>17404</v>
+        <v>17455</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>0.21765610735233426</v>
+        <v>0.21769225013095209</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -699,11 +699,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>15268</v>
+        <v>15307</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>0.19094308475381749</v>
+        <v>0.19090319523084981</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -711,11 +711,11 @@
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>12887</v>
+        <v>12918</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0.16116606845837345</v>
+        <v>0.16110847821206756</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -723,11 +723,11 @@
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>4666</v>
+        <v>4676</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>5.8353447305561461E-2</v>
+        <v>5.8317328078621139E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -735,11 +735,11 @@
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>3155</v>
+        <v>3163</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>3.9456735158389718E-2</v>
+        <v>3.9447756354293984E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -747,11 +747,11 @@
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>1915</v>
+        <v>1920</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>2.3949175222921174E-2</v>
+        <v>2.3945523933052305E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -759,11 +759,11 @@
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>1267</v>
+        <v>1271</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>1.5845224546966647E-2</v>
+        <v>1.5851437978598688E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -771,11 +771,11 @@
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>2.4499443478695863E-2</v>
+        <v>2.445686064203936E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -787,7 +787,7 @@
       </c>
       <c r="C14" s="9">
         <f t="shared" si="0"/>
-        <v>1.6257925738797664E-4</v>
+        <v>1.6213115163004165E-4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -796,7 +796,7 @@
       </c>
       <c r="B15" s="1">
         <f>SUM(B2:B14)</f>
-        <v>79961</v>
+        <v>80182</v>
       </c>
       <c r="C15" s="8">
         <f t="shared" si="0"/>
@@ -835,11 +835,11 @@
         <v>16</v>
       </c>
       <c r="B2" s="6">
-        <v>27316</v>
+        <v>27435</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$5</f>
-        <v>0.34161653806230535</v>
+        <v>0.34215908807463019</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="15"/>
@@ -851,11 +851,11 @@
         <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>51746</v>
+        <v>51848</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.64714048098447996</v>
+        <v>0.64662891920879995</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="14"/>
@@ -871,7 +871,7 @@
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>1.1242980953214693E-2</v>
+        <v>1.1211992716569804E-2</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="14"/>
@@ -884,7 +884,7 @@
       </c>
       <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
-        <v>79961</v>
+        <v>80182</v>
       </c>
       <c r="C5" s="8">
         <f t="shared" si="0"/>
@@ -905,7 +905,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -935,11 +935,11 @@
         <v>23</v>
       </c>
       <c r="B2" s="6">
-        <v>979</v>
+        <v>987</v>
       </c>
       <c r="C2" s="9">
         <f t="shared" ref="C2" si="0">B2/$B$8</f>
-        <v>1.2243468690986857E-2</v>
+        <v>1.23094958968347E-2</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="19"/>
@@ -953,11 +953,11 @@
         <v>21</v>
       </c>
       <c r="B3" s="6">
-        <v>13121</v>
+        <v>13142</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C8" si="1">B3/$B$8</f>
-        <v>0.16409249509135704</v>
+        <v>0.16390212267092366</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="20"/>
@@ -971,11 +971,11 @@
         <v>22</v>
       </c>
       <c r="B4" s="6">
-        <v>28632</v>
+        <v>28717</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="1"/>
-        <v>0.35807456134865745</v>
+        <v>0.358147713950762</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="20"/>
@@ -989,11 +989,11 @@
         <v>25</v>
       </c>
       <c r="B5" s="6">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" ref="C5" si="2">B5/$B$8</f>
-        <v>7.2660421955703406E-3</v>
+        <v>7.3956748397395926E-3</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="20"/>
@@ -1007,11 +1007,11 @@
         <v>20</v>
       </c>
       <c r="B6" s="6">
-        <v>27929</v>
+        <v>28009</v>
       </c>
       <c r="C6" s="9">
         <f>B6/$B$8</f>
-        <v>0.34928277535298458</v>
+        <v>0.34931780200044898</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="20"/>
@@ -1025,11 +1025,11 @@
         <v>18</v>
       </c>
       <c r="B7" s="6">
-        <v>8719</v>
+        <v>8734</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="1"/>
-        <v>0.10904065732044371</v>
+        <v>0.10892719064129107</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="20"/>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B8" s="1">
         <f>SUM(B2:B7)</f>
-        <v>79961</v>
+        <v>80182</v>
       </c>
       <c r="C8" s="8">
         <f t="shared" si="1"/>
@@ -1173,7 +1173,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="C2" s="9">
         <f>B2/$B$15</f>
-        <v>1.3681762210972773E-4</v>
+        <v>1.3641767193498723E-4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>2.5408986963235152E-4</v>
+        <v>2.5334710502211916E-4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1221,11 +1221,11 @@
         <v>4</v>
       </c>
       <c r="B4" s="6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>6.6454273596153472E-4</v>
+        <v>6.8208835967493618E-4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -1233,11 +1233,11 @@
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>5.2577057639309659E-3</v>
+        <v>5.2813127277687912E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -1245,11 +1245,11 @@
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>1.7395383382522524E-2</v>
+        <v>1.7441973768830509E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -1257,11 +1257,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>2586</v>
+        <v>2603</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>5.0544338682250847E-2</v>
+        <v>5.0727885720967397E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -1269,11 +1269,11 @@
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>5850</v>
+        <v>5874</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0.11434044133455817</v>
+        <v>0.11447391499230214</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -1281,11 +1281,11 @@
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>4830</v>
+        <v>4849</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>9.4404159255712133E-2</v>
+        <v>9.4498470173250443E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -1293,11 +1293,11 @@
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>6215</v>
+        <v>6236</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>0.12147450305885112</v>
+        <v>0.12152865745522577</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -1305,11 +1305,11 @@
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>6846</v>
+        <v>6863</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>0.13380763442331373</v>
+        <v>0.13374778321283107</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -1317,11 +1317,11 @@
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>6739</v>
+        <v>6753</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>0.13171627934249361</v>
+        <v>0.13160407693956697</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -1329,11 +1329,11 @@
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>16884</v>
+        <v>16914</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>0.3300041045286633</v>
+        <v>0.32962407187262488</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B15" s="7">
         <f>SUM(B2:B14)</f>
-        <v>51163</v>
+        <v>51313</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" si="0"/>
@@ -1370,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92BAF56-3443-4211-AC39-FD818DE6BEEB}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -1392,11 +1392,11 @@
         <v>16</v>
       </c>
       <c r="B2" s="6">
-        <v>21459</v>
+        <v>21524</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$5</f>
-        <v>0.4194241932646639</v>
+        <v>0.41946485296123787</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -1404,11 +1404,11 @@
         <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>29703</v>
+        <v>29788</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.580556261360749</v>
+        <v>0.58051565879991429</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>1.9545374587103963E-5</v>
+        <v>1.9488238847855319E-5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
-        <v>51163</v>
+        <v>51313</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" si="0"/>
@@ -1445,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5030A505-56A3-4E91-AD33-A7ADAD482E9C}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -1470,11 +1470,11 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="C2" s="9">
         <f t="shared" ref="C2" si="0">B2/$B$8</f>
-        <v>2.1304458299943319E-2</v>
+        <v>2.1281156821858008E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1482,11 +1482,11 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>5223</v>
+        <v>5244</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C8" si="1">B3/$B$8</f>
-        <v>0.10208549146844399</v>
+        <v>0.10219632451815329</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -1494,11 +1494,11 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>23753</v>
+        <v>23822</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="1"/>
-        <v>0.46426128256748039</v>
+        <v>0.46424882583360944</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -1506,11 +1506,11 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="1"/>
-        <v>5.4727048843891089E-3</v>
+        <v>5.4761951162473448E-3</v>
       </c>
       <c r="G5" s="9"/>
     </row>
@@ -1519,11 +1519,11 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>20794</v>
+        <v>20851</v>
       </c>
       <c r="C6" s="9">
         <f>B6/$B$8</f>
-        <v>0.40642651916423977</v>
+        <v>0.40634926821663125</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="C7" s="9">
         <f t="shared" si="1"/>
-        <v>4.495436155033911E-4</v>
+        <v>4.4822949350067237E-4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>51163</v>
+        <v>51313</v>
       </c>
       <c r="C8" s="13">
         <f t="shared" si="1"/>
